--- a/cw/auc_k/proxy.xlsx
+++ b/cw/auc_k/proxy.xlsx
@@ -14,1452 +14,1422 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
+  <si>
+    <t>43.228.126.175:80</t>
+  </si>
+  <si>
+    <t>46.101.172.5:443</t>
+  </si>
+  <si>
+    <t>46.4.62.108:80</t>
+  </si>
+  <si>
+    <t>51.38.106.25:80</t>
+  </si>
+  <si>
+    <t>58.181.39.182:80</t>
+  </si>
+  <si>
+    <t>59.106.213.54:60088</t>
+  </si>
+  <si>
+    <t>59.106.216.142:60088</t>
+  </si>
+  <si>
+    <t>212.237.50.160:3128</t>
+  </si>
+  <si>
+    <t>213.6.40.142:80</t>
+  </si>
+  <si>
+    <t>217.182.92.162:3128</t>
+  </si>
+  <si>
+    <t>157.65.167.21:3128</t>
+  </si>
+  <si>
+    <t>59.106.218.188:60088</t>
+  </si>
+  <si>
+    <t>66.82.144.29:8080</t>
+  </si>
+  <si>
+    <t>150.95.154.91:3128</t>
+  </si>
+  <si>
+    <t>133.242.224.79:60088</t>
+  </si>
+  <si>
+    <t>147.135.210.114:54566</t>
+  </si>
+  <si>
+    <t>27.133.130.156:3128</t>
+  </si>
+  <si>
+    <t>47.52.153.167:443</t>
+  </si>
+  <si>
+    <t>198.50.168.208:80</t>
+  </si>
+  <si>
+    <t>67.205.148.246:3128</t>
+  </si>
+  <si>
+    <t>34.240.231.232:3129</t>
+  </si>
+  <si>
+    <t>43.245.187.38:53281</t>
+  </si>
+  <si>
+    <t>45.116.158.85:53281</t>
+  </si>
+  <si>
+    <t>46.38.245.178:8080</t>
+  </si>
+  <si>
+    <t>5.226.70.68:80</t>
+  </si>
+  <si>
+    <t>51.15.86.88:3128</t>
+  </si>
+  <si>
+    <t>41.72.198.10:3128</t>
+  </si>
+  <si>
+    <t>41.72.198.10:80</t>
+  </si>
+  <si>
+    <t>59.106.218.101:60088</t>
+  </si>
+  <si>
+    <t>59.106.218.51:60088</t>
+  </si>
+  <si>
+    <t>62.80.223.139:80</t>
+  </si>
+  <si>
+    <t>66.154.103.39:80</t>
+  </si>
+  <si>
+    <t>79.137.85.204:80</t>
+  </si>
+  <si>
+    <t>80.211.157.173:80</t>
+  </si>
+  <si>
+    <t>81.107.70.221:80</t>
+  </si>
+  <si>
+    <t>82.208.98.202:80</t>
+  </si>
+  <si>
+    <t>82.244.233.132:80</t>
+  </si>
+  <si>
+    <t>83.169.6.43:80</t>
+  </si>
+  <si>
+    <t>86.119.40.127:80</t>
+  </si>
+  <si>
+    <t>88.99.215.14:80</t>
+  </si>
+  <si>
+    <t>91.121.162.173:80</t>
+  </si>
+  <si>
+    <t>66.70.181.148:3128</t>
+  </si>
+  <si>
+    <t>66.70.190.244:80</t>
+  </si>
+  <si>
+    <t>66.70.190.244:8080</t>
+  </si>
+  <si>
+    <t>204.11.243.74:3128</t>
+  </si>
+  <si>
+    <t>67.205.148.246:53</t>
+  </si>
+  <si>
+    <t>79.190.145.140:3128</t>
+  </si>
+  <si>
+    <t>219.127.191.12:80</t>
+  </si>
+  <si>
+    <t>80.211.181.37:3128</t>
+  </si>
+  <si>
+    <t>80.211.181.37:80</t>
+  </si>
+  <si>
+    <t>80.211.189.165:3128</t>
+  </si>
+  <si>
+    <t>85.11.114.135:3128</t>
+  </si>
+  <si>
+    <t>87.139.146.191:8080</t>
+  </si>
+  <si>
+    <t>88.99.149.188:31288</t>
+  </si>
+  <si>
+    <t>90.187.51.41:8080</t>
+  </si>
+  <si>
+    <t>92.222.213.107:3128</t>
+  </si>
+  <si>
+    <t>93.58.124.32:80</t>
+  </si>
+  <si>
+    <t>121.121.125.55:80</t>
+  </si>
+  <si>
+    <t>94.130.20.85:31288</t>
+  </si>
+  <si>
+    <t>80.211.226.156:80</t>
+  </si>
+  <si>
+    <t>133.130.117.241:3128</t>
+  </si>
+  <si>
+    <t>140.227.69.54:3128</t>
+  </si>
+  <si>
+    <t>119.207.78.155:80</t>
+  </si>
+  <si>
+    <t>43.249.229.163:8080</t>
+  </si>
+  <si>
+    <t>59.106.223.171:60088</t>
+  </si>
+  <si>
+    <t>180.235.252.189:60088</t>
+  </si>
+  <si>
+    <t>145.249.106.107:8118</t>
+  </si>
+  <si>
+    <t>89.236.17.106:3128</t>
+  </si>
+  <si>
+    <t>185.93.3.123:8080</t>
+  </si>
+  <si>
+    <t>51.38.64.76:10000</t>
+  </si>
+  <si>
+    <t>163.43.28.199:60088</t>
+  </si>
+  <si>
+    <t>192.169.154.178:80</t>
+  </si>
+  <si>
+    <t>206.81.3.55:3128</t>
+  </si>
+  <si>
+    <t>23.100.107.150:3128</t>
+  </si>
+  <si>
+    <t>40.114.14.173:80</t>
+  </si>
+  <si>
+    <t>45.55.157.204:80</t>
+  </si>
+  <si>
+    <t>45.76.102.72:8088</t>
+  </si>
+  <si>
+    <t>47.75.160.100:80</t>
+  </si>
+  <si>
+    <t>54.36.162.123:10000</t>
+  </si>
+  <si>
+    <t>47.89.241.103:8080</t>
+  </si>
+  <si>
+    <t>47.52.153.167:80</t>
+  </si>
+  <si>
+    <t>67.205.148.246:8080</t>
+  </si>
+  <si>
+    <t>209.97.154.41:3128</t>
+  </si>
+  <si>
+    <t>167.99.224.142:8080</t>
+  </si>
+  <si>
+    <t>18.222.124.59:8080</t>
+  </si>
+  <si>
+    <t>206.81.5.117:3128</t>
+  </si>
+  <si>
+    <t>167.99.224.142:3128</t>
+  </si>
+  <si>
+    <t>35.234.129.7:80</t>
+  </si>
+  <si>
+    <t>149.56.103.184:10000</t>
+  </si>
+  <si>
+    <t>149.56.103.185:10000</t>
+  </si>
+  <si>
+    <t>132.148.150.41:80</t>
+  </si>
+  <si>
+    <t>47.254.27.204:80</t>
+  </si>
+  <si>
+    <t>159.65.182.63:80</t>
+  </si>
+  <si>
+    <t>140.227.25.111:3128</t>
+  </si>
+  <si>
+    <t>13.250.242.1:80</t>
+  </si>
+  <si>
+    <t>104.131.214.218:80</t>
+  </si>
+  <si>
+    <t>153.120.166.64:60088</t>
+  </si>
+  <si>
+    <t>153.120.166.9:60088</t>
+  </si>
+  <si>
+    <t>153.120.167.192:60088</t>
+  </si>
+  <si>
+    <t>54.177.53.69:80</t>
+  </si>
+  <si>
+    <t>159.65.136.198:3128</t>
+  </si>
+  <si>
+    <t>153.120.170.101:60088</t>
+  </si>
+  <si>
+    <t>168.235.93.162:8080</t>
+  </si>
+  <si>
+    <t>54.39.98.138:8080</t>
+  </si>
+  <si>
+    <t>153.120.170.129:60088</t>
+  </si>
+  <si>
+    <t>206.81.5.117:8080</t>
+  </si>
+  <si>
+    <t>209.97.154.41:8080</t>
+  </si>
+  <si>
+    <t>153.120.170.206:60088</t>
+  </si>
+  <si>
+    <t>159.203.33.72:3128</t>
+  </si>
+  <si>
+    <t>153.125.128.237:60088</t>
+  </si>
+  <si>
+    <t>153.125.128.98:60088</t>
+  </si>
+  <si>
+    <t>153.125.129.225:60088</t>
+  </si>
+  <si>
+    <t>153.127.194.248:60088</t>
+  </si>
+  <si>
+    <t>153.127.195.28:60088</t>
+  </si>
+  <si>
+    <t>153.127.196.176:60088</t>
+  </si>
+  <si>
+    <t>153.127.196.201:60088</t>
+  </si>
+  <si>
+    <t>153.127.198.128:60088</t>
+  </si>
+  <si>
+    <t>153.127.198.98:60088</t>
+  </si>
+  <si>
+    <t>153.127.199.19:60088</t>
+  </si>
+  <si>
+    <t>199.38.114.195:80</t>
+  </si>
+  <si>
+    <t>153.127.201.147:60088</t>
+  </si>
+  <si>
+    <t>153.127.201.235:60088</t>
+  </si>
+  <si>
+    <t>153.127.203.112:60088</t>
+  </si>
+  <si>
+    <t>13.95.231.14:80</t>
+  </si>
+  <si>
+    <t>153.127.216.249:60088</t>
+  </si>
+  <si>
+    <t>192.169.154.104:80</t>
+  </si>
+  <si>
+    <t>153.127.217.166:60088</t>
+  </si>
+  <si>
+    <t>157.65.29.152:3128</t>
+  </si>
+  <si>
+    <t>158.199.141.106:80</t>
+  </si>
+  <si>
+    <t>158.69.171.234:80</t>
+  </si>
+  <si>
+    <t>159.89.194.51:80</t>
+  </si>
+  <si>
+    <t>163.172.122.68:80</t>
+  </si>
+  <si>
+    <t>13.80.147.35:80</t>
+  </si>
+  <si>
+    <t>163.172.181.29:80</t>
+  </si>
+  <si>
+    <t>163.172.98.25:80</t>
+  </si>
+  <si>
+    <t>163.43.28.172:60088</t>
+  </si>
+  <si>
+    <t>163.43.28.237:60088</t>
+  </si>
+  <si>
+    <t>163.43.28.30:60088</t>
+  </si>
+  <si>
+    <t>163.43.29.166:60088</t>
+  </si>
+  <si>
+    <t>163.43.29.181:60088</t>
+  </si>
+  <si>
+    <t>163.43.30.42:60088</t>
+  </si>
+  <si>
+    <t>163.43.30.9:60088</t>
+  </si>
+  <si>
+    <t>163.43.31.107:60088</t>
+  </si>
+  <si>
+    <t>163.43.31.6:60088</t>
+  </si>
+  <si>
+    <t>13.127.94.56:80</t>
+  </si>
+  <si>
+    <t>164.132.98.51:80</t>
+  </si>
+  <si>
+    <t>165.90.11.18:8080</t>
+  </si>
+  <si>
+    <t>34.240.97.171:3128</t>
+  </si>
+  <si>
+    <t>170.78.23.245:8080</t>
+  </si>
+  <si>
+    <t>175.98.239.87:8888</t>
+  </si>
+  <si>
+    <t>208.67.183.240:80</t>
+  </si>
+  <si>
+    <t>145.239.93.131:80</t>
+  </si>
+  <si>
+    <t>138.197.170.108:80</t>
+  </si>
+  <si>
+    <t>158.58.172.207:14826</t>
+  </si>
+  <si>
+    <t>158.69.150.164:3128</t>
+  </si>
+  <si>
+    <t>158.69.150.164:80</t>
+  </si>
+  <si>
+    <t>158.69.150.164:8080</t>
+  </si>
+  <si>
+    <t>40.74.243.24:80</t>
+  </si>
+  <si>
+    <t>159.65.175.251:80</t>
+  </si>
+  <si>
+    <t>160.16.201.57:60088</t>
+  </si>
+  <si>
+    <t>167.99.224.142:53</t>
+  </si>
+  <si>
+    <t>52.172.35.99:80</t>
+  </si>
+  <si>
+    <t>175.139.252.193:80</t>
+  </si>
+  <si>
+    <t>176.53.2.122:8080</t>
+  </si>
+  <si>
+    <t>177.204.85.203:80</t>
+  </si>
+  <si>
+    <t>177.4.173.242:80</t>
+  </si>
+  <si>
+    <t>178.33.178.217:80</t>
+  </si>
+  <si>
+    <t>184.172.238.18:80</t>
+  </si>
+  <si>
+    <t>52.51.186.165:80</t>
+  </si>
+  <si>
+    <t>198.1.122.29:80</t>
+  </si>
+  <si>
+    <t>178.62.24.94:80</t>
+  </si>
+  <si>
+    <t>93.17.7.146:80</t>
+  </si>
+  <si>
+    <t>60.248.199.206:80</t>
+  </si>
+  <si>
+    <t>92.222.74.221:80</t>
+  </si>
+  <si>
+    <t>91.134.137.233:80</t>
+  </si>
+  <si>
+    <t>181.113.27.99:80</t>
+  </si>
+  <si>
+    <t>185.229.224.61:80</t>
+  </si>
+  <si>
+    <t>187.86.96.10:8080</t>
+  </si>
+  <si>
+    <t>188.164.203.26:80</t>
+  </si>
+  <si>
+    <t>188.166.119.186:80</t>
+  </si>
+  <si>
+    <t>188.166.175.238:80</t>
+  </si>
+  <si>
+    <t>189.115.92.71:80</t>
+  </si>
+  <si>
+    <t>219.120.3.219:80</t>
+  </si>
+  <si>
+    <t>189.125.170.36:80</t>
+  </si>
+  <si>
+    <t>212.72.150.51:8081</t>
+  </si>
+  <si>
+    <t>190.82.70.109:80</t>
+  </si>
+  <si>
+    <t>60.250.79.187:80</t>
+  </si>
+  <si>
+    <t>212.237.29.185:80</t>
+  </si>
+  <si>
+    <t>59.106.223.57:60088</t>
+  </si>
+  <si>
+    <t>59.106.222.74:60088</t>
+  </si>
+  <si>
+    <t>140.227.26.111:3128</t>
+  </si>
+  <si>
+    <t>140.227.70.51:3128</t>
+  </si>
+  <si>
+    <t>140.227.71.66:3128</t>
+  </si>
+  <si>
+    <t>192.116.142.153:8080</t>
+  </si>
+  <si>
+    <t>192.244.104.3:3128</t>
+  </si>
+  <si>
+    <t>140.227.74.7:3128</t>
+  </si>
+  <si>
+    <t>140.227.75.72:3128</t>
+  </si>
+  <si>
+    <t>140.227.78.54:3128</t>
+  </si>
+  <si>
+    <t>195.190.148.19:80</t>
+  </si>
+  <si>
+    <t>140.227.80.50:3128</t>
+  </si>
+  <si>
+    <t>195.201.7.153:443</t>
+  </si>
+  <si>
+    <t>140.227.81.69:3128</t>
+  </si>
+  <si>
+    <t>195.201.7.153:80</t>
+  </si>
+  <si>
+    <t>196.22.249.124:80</t>
+  </si>
+  <si>
+    <t>200.42.45.211:80</t>
+  </si>
+  <si>
+    <t>202.138.127.66:80</t>
+  </si>
+  <si>
+    <t>202.21.32.148:8080</t>
+  </si>
+  <si>
+    <t>176.31.45.117:3128</t>
+  </si>
+  <si>
+    <t>177.67.83.134:80</t>
+  </si>
+  <si>
+    <t>178.33.37.215:9999</t>
+  </si>
+  <si>
+    <t>180.253.154.109:80</t>
+  </si>
+  <si>
+    <t>180.253.154.109:8080</t>
+  </si>
+  <si>
+    <t>181.49.24.126:8081</t>
+  </si>
+  <si>
+    <t>185.42.221.246:80</t>
+  </si>
+  <si>
+    <t>186.71.20.154:80</t>
+  </si>
+  <si>
+    <t>187.84.222.153:80</t>
+  </si>
+  <si>
+    <t>188.192.138.183:80</t>
+  </si>
+  <si>
+    <t>189.8.68.78:8080</t>
+  </si>
+  <si>
+    <t>191.252.120.162:80</t>
+  </si>
+  <si>
+    <t>191.252.120.162:8080</t>
+  </si>
+  <si>
+    <t>191.252.120.198:3128</t>
+  </si>
+  <si>
+    <t>191.252.120.198:80</t>
+  </si>
+  <si>
+    <t>191.252.120.198:8080</t>
+  </si>
+  <si>
+    <t>191.252.194.156:3128</t>
+  </si>
+  <si>
+    <t>191.252.194.156:80</t>
+  </si>
+  <si>
+    <t>191.252.194.156:8080</t>
+  </si>
+  <si>
+    <t>191.252.92.198:80</t>
+  </si>
+  <si>
+    <t>195.178.207.241:80</t>
+  </si>
+  <si>
+    <t>195.49.189.130:80</t>
+  </si>
+  <si>
+    <t>198.50.137.181:3128</t>
+  </si>
+  <si>
+    <t>198.50.137.181:8080</t>
+  </si>
+  <si>
+    <t>200.54.108.54:80</t>
+  </si>
+  <si>
+    <t>202.131.233.202:53281</t>
+  </si>
+  <si>
+    <t>177.72.56.155:3128</t>
+  </si>
+  <si>
+    <t>190.128.162.70:80</t>
+  </si>
+  <si>
+    <t>201.245.172.157:80</t>
+  </si>
+  <si>
+    <t>211.249.50.216:80</t>
+  </si>
+  <si>
+    <t>219.91.255.179:80</t>
+  </si>
+  <si>
+    <t>27.133.132.80:60088</t>
+  </si>
+  <si>
+    <t>27.133.153.227:60088</t>
+  </si>
+  <si>
+    <t>27.133.155.162:60088</t>
+  </si>
+  <si>
+    <t>37.187.116.199:80</t>
+  </si>
+  <si>
+    <t>41.190.33.162:8080</t>
+  </si>
+  <si>
+    <t>14.136.246.173:3128</t>
+  </si>
+  <si>
+    <t>148.251.235.82:80</t>
+  </si>
+  <si>
+    <t>119.28.21.144:8080</t>
+  </si>
+  <si>
+    <t>109.196.34.51:8080</t>
+  </si>
+  <si>
+    <t>103.83.233.161:8080</t>
+  </si>
+  <si>
+    <t>103.252.163.119:3128</t>
+  </si>
+  <si>
+    <t>139.255.57.32:8080</t>
+  </si>
+  <si>
+    <t>137.74.198.136:80</t>
+  </si>
+  <si>
+    <t>123.31.47.8:3128</t>
+  </si>
+  <si>
+    <t>123.30.172.60:3128</t>
+  </si>
+  <si>
+    <t>119.28.194.66:8888</t>
+  </si>
+  <si>
+    <t>119.28.142.148:8888</t>
+  </si>
+  <si>
+    <t>114.202.2.185:80</t>
+  </si>
+  <si>
+    <t>111.68.108.34:8080</t>
+  </si>
+  <si>
+    <t>109.233.125.171:10098</t>
+  </si>
+  <si>
+    <t>103.63.109.19:3128</t>
+  </si>
+  <si>
+    <t>103.253.146.215:8080</t>
+  </si>
+  <si>
+    <t>145.239.77.20:80</t>
+  </si>
+  <si>
+    <t>144.217.82.199:80</t>
+  </si>
+  <si>
+    <t>140.227.9.100:3128</t>
+  </si>
+  <si>
+    <t>140.227.81.53:3128</t>
+  </si>
+  <si>
+    <t>142.44.247.60:80</t>
+  </si>
+  <si>
+    <t>140.227.80.64:3128</t>
+  </si>
+  <si>
+    <t>140.227.8.186:3128</t>
+  </si>
+  <si>
+    <t>140.227.79.52:3128</t>
+  </si>
+  <si>
+    <t>140.227.71.55:3128</t>
+  </si>
+  <si>
+    <t>140.227.68.82:3128</t>
+  </si>
+  <si>
+    <t>140.227.30.123:3128</t>
+  </si>
+  <si>
+    <t>14.46.16.29:80</t>
+  </si>
+  <si>
+    <t>139.59.188.36:80</t>
+  </si>
+  <si>
+    <t>139.59.153.59:80</t>
+  </si>
+  <si>
+    <t>138.94.160.176:80</t>
+  </si>
+  <si>
+    <t>133.242.237.62:60088</t>
+  </si>
+  <si>
+    <t>133.242.235.119:60088</t>
+  </si>
+  <si>
+    <t>133.242.231.184:60088</t>
+  </si>
+  <si>
+    <t>133.242.230.13:60088</t>
+  </si>
+  <si>
+    <t>133.242.228.188:60088</t>
+  </si>
+  <si>
+    <t>133.242.228.111:60088</t>
+  </si>
+  <si>
+    <t>133.242.224.27:60088</t>
+  </si>
+  <si>
+    <t>133.130.118.134:3128</t>
+  </si>
+  <si>
+    <t>129.232.179.98:80</t>
+  </si>
+  <si>
+    <t>125.212.203.161:80</t>
+  </si>
+  <si>
+    <t>118.193.26.18:8080</t>
+  </si>
+  <si>
+    <t>117.102.88.121:80</t>
+  </si>
+  <si>
+    <t>116.197.135.172:3128</t>
+  </si>
+  <si>
+    <t>115.84.179.249:7777</t>
+  </si>
+  <si>
+    <t>115.249.145.202:80</t>
+  </si>
+  <si>
+    <t>113.190.235.188:2016</t>
+  </si>
+  <si>
+    <t>109.251.106.8:8010</t>
+  </si>
+  <si>
+    <t>103.3.70.133:80</t>
+  </si>
+  <si>
+    <t>103.252.163.191:80</t>
+  </si>
+  <si>
+    <t>188.120.232.181:8118</t>
+  </si>
+  <si>
+    <t>223.19.51.247:8380</t>
+  </si>
+  <si>
+    <t>185.26.52.133:80</t>
+  </si>
+  <si>
+    <t>149.56.243.207:80</t>
+  </si>
+  <si>
+    <t>34.240.231.232:3130</t>
+  </si>
+  <si>
+    <t>5.39.27.169:80</t>
+  </si>
+  <si>
+    <t>159.65.168.7:80</t>
+  </si>
+  <si>
+    <t>169.239.126.150:3128</t>
+  </si>
+  <si>
+    <t>90.45.26.244:80</t>
+  </si>
+  <si>
+    <t>223.19.51.247:8383</t>
+  </si>
+  <si>
+    <t>117.102.69.52:80</t>
+  </si>
+  <si>
+    <t>189.8.68.78:3128</t>
+  </si>
+  <si>
+    <t>193.194.69.202:8090</t>
+  </si>
+  <si>
+    <t>103.20.205.197:80</t>
+  </si>
+  <si>
+    <t>139.162.3.174:8118</t>
+  </si>
+  <si>
+    <t>138.201.223.250:31288</t>
+  </si>
+  <si>
+    <t>195.13.50.212:8118</t>
+  </si>
+  <si>
+    <t>160.16.75.109:80</t>
+  </si>
+  <si>
+    <t>187.110.238.133:3130</t>
+  </si>
+  <si>
+    <t>150.95.190.145:3128</t>
+  </si>
+  <si>
+    <t>45.6.216.79:80</t>
+  </si>
+  <si>
+    <t>144.217.246.237:9090</t>
+  </si>
+  <si>
+    <t>176.107.110.112:80</t>
+  </si>
+  <si>
+    <t>140.227.73.83:3128</t>
+  </si>
+  <si>
+    <t>178.33.39.195:9999</t>
+  </si>
+  <si>
+    <t>150.95.147.66:3128</t>
+  </si>
+  <si>
+    <t>58.97.81.11:80</t>
+  </si>
+  <si>
+    <t>167.114.196.153:80</t>
+  </si>
+  <si>
+    <t>5.189.168.151:80</t>
+  </si>
+  <si>
+    <t>189.76.81.14:20183</t>
+  </si>
+  <si>
+    <t>150.242.180.151:80</t>
+  </si>
+  <si>
+    <t>202.21.116.186:53281</t>
+  </si>
+  <si>
+    <t>178.60.28.98:9999</t>
+  </si>
+  <si>
+    <t>193.105.155.168:80</t>
+  </si>
+  <si>
+    <t>221.139.49.46:80</t>
+  </si>
+  <si>
+    <t>176.31.125.111:80</t>
+  </si>
+  <si>
+    <t>144.217.105.153:80</t>
+  </si>
+  <si>
+    <t>145.249.105.25:8118</t>
+  </si>
+  <si>
+    <t>116.82.121.187:60088</t>
+  </si>
+  <si>
+    <t>191.252.193.162:80</t>
+  </si>
+  <si>
+    <t>157.65.167.23:3128</t>
+  </si>
+  <si>
+    <t>189.8.68.78:80</t>
+  </si>
+  <si>
+    <t>191.252.193.162:8080</t>
+  </si>
+  <si>
+    <t>195.219.102.239:80</t>
+  </si>
+  <si>
+    <t>81.30.26.80:80</t>
+  </si>
+  <si>
+    <t>41.220.111.125:8080</t>
+  </si>
+  <si>
+    <t>182.72.68.39:80</t>
+  </si>
+  <si>
+    <t>103.20.204.104:80</t>
+  </si>
+  <si>
+    <t>34.240.97.171:3129</t>
+  </si>
+  <si>
+    <t>176.108.47.38:3128</t>
+  </si>
+  <si>
+    <t>185.253.88.10:80</t>
+  </si>
+  <si>
+    <t>200.60.104.68:80</t>
+  </si>
+  <si>
+    <t>200.12.130.113:80</t>
+  </si>
+  <si>
+    <t>151.80.58.175:80</t>
+  </si>
+  <si>
+    <t>154.70.135.212:8080</t>
+  </si>
+  <si>
+    <t>51.15.147.94:80</t>
+  </si>
+  <si>
+    <t>212.56.139.253:80</t>
+  </si>
+  <si>
+    <t>5.152.217.82:3128</t>
+  </si>
+  <si>
+    <t>51.255.138.195:9999</t>
+  </si>
+  <si>
+    <t>211.75.82.206:3128</t>
+  </si>
+  <si>
+    <t>91.121.88.53:80</t>
+  </si>
+  <si>
+    <t>91.134.221.168:80</t>
+  </si>
+  <si>
+    <t>91.203.240.210:80</t>
+  </si>
+  <si>
+    <t>173.68.185.170:80</t>
+  </si>
+  <si>
+    <t>207.154.194.13:80</t>
+  </si>
+  <si>
+    <t>66.161.247.247:80</t>
+  </si>
+  <si>
+    <t>199.203.232.124:80</t>
+  </si>
+  <si>
+    <t>12.162.8.175:80</t>
+  </si>
+  <si>
+    <t>34.240.231.232:3128</t>
+  </si>
+  <si>
+    <t>35.230.34.45:80</t>
+  </si>
+  <si>
+    <t>52.169.139.131:80</t>
+  </si>
+  <si>
+    <t>52.208.125.199:80</t>
+  </si>
+  <si>
+    <t>207.154.245.20:80</t>
+  </si>
+  <si>
+    <t>96.44.148.86:80</t>
+  </si>
+  <si>
+    <t>64.88.186.84:80</t>
+  </si>
+  <si>
+    <t>41.89.94.43:80</t>
+  </si>
+  <si>
+    <t>212.200.246.24:80</t>
+  </si>
+  <si>
+    <t>202.222.22.188:80</t>
+  </si>
+  <si>
+    <t>202.222.22.187:80</t>
+  </si>
+  <si>
+    <t>200.232.51.242:80</t>
+  </si>
+  <si>
+    <t>195.154.207.153:80</t>
+  </si>
+  <si>
+    <t>192.111.142.90:3128</t>
+  </si>
+  <si>
+    <t>188.165.240.92:3128</t>
+  </si>
+  <si>
+    <t>187.217.189.229:8081</t>
+  </si>
+  <si>
+    <t>178.49.139.13:80</t>
+  </si>
+  <si>
+    <t>200.254.125.10:80</t>
+  </si>
+  <si>
+    <t>200.109.108.137:3128</t>
+  </si>
+  <si>
+    <t>178.62.76.18:81</t>
+  </si>
+  <si>
+    <t>171.255.199.129:80</t>
+  </si>
+  <si>
+    <t>163.172.86.64:3128</t>
+  </si>
+  <si>
+    <t>148.251.85.62:3128</t>
+  </si>
+  <si>
+    <t>153.127.215.246:60088</t>
+  </si>
+  <si>
+    <t>153.127.201.127:60088</t>
+  </si>
+  <si>
+    <t>153.125.129.235:60088</t>
+  </si>
+  <si>
+    <t>153.120.166.62:60088</t>
+  </si>
+  <si>
+    <t>108.179.54.171:80</t>
+  </si>
+  <si>
+    <t>104.155.103.87:80</t>
+  </si>
+  <si>
+    <t>93.190.142.240:80</t>
+  </si>
+  <si>
+    <t>93.190.142.214:80</t>
+  </si>
+  <si>
+    <t>75.128.59.155:80</t>
+  </si>
+  <si>
+    <t>92.222.83.160:80</t>
+  </si>
+  <si>
+    <t>79.190.145.141:3128</t>
+  </si>
+  <si>
+    <t>85.93.177.178:80</t>
+  </si>
+  <si>
+    <t>107.172.48.172:9999</t>
+  </si>
+  <si>
+    <t>109.108.146.157:80</t>
+  </si>
+  <si>
+    <t>85.126.244.82:8080</t>
+  </si>
+  <si>
+    <t>194.8.251.205:80</t>
+  </si>
+  <si>
+    <t>195.154.168.227:80</t>
+  </si>
+  <si>
+    <t>79.190.145.142:3128</t>
+  </si>
+  <si>
+    <t>79.113.76.80:8080</t>
+  </si>
+  <si>
+    <t>159.65.168.134:80</t>
+  </si>
+  <si>
+    <t>137.74.254.242:3128</t>
+  </si>
+  <si>
+    <t>140.227.82.51:3128</t>
+  </si>
+  <si>
+    <t>140.227.74.74:3128</t>
+  </si>
+  <si>
+    <t>59.106.217.16:60088</t>
+  </si>
+  <si>
+    <t>77.82.87.125:8081</t>
+  </si>
+  <si>
+    <t>83.64.253.168:80</t>
+  </si>
+  <si>
+    <t>117.74.125.192:8088</t>
+  </si>
+  <si>
+    <t>153.127.195.6:60088</t>
+  </si>
+  <si>
+    <t>177.54.142.222:8080</t>
+  </si>
+  <si>
+    <t>188.111.84.107:80</t>
+  </si>
+  <si>
+    <t>188.120.228.19:80</t>
+  </si>
+  <si>
+    <t>195.201.224.231:80</t>
+  </si>
+  <si>
+    <t>195.208.172.70:8080</t>
+  </si>
+  <si>
+    <t>202.131.229.250:53281</t>
+  </si>
+  <si>
+    <t>23.100.106.183:3128</t>
+  </si>
+  <si>
+    <t>213.163.181.33:80</t>
+  </si>
+  <si>
+    <t>222.122.202.175:80</t>
+  </si>
+  <si>
+    <t>34.240.97.171:3130</t>
+  </si>
+  <si>
+    <t>51.255.235.168:80</t>
+  </si>
+  <si>
+    <t>59.106.209.106:60088</t>
+  </si>
+  <si>
+    <t>59.106.213.216:60088</t>
+  </si>
+  <si>
+    <t>187.85.83.2:8080</t>
+  </si>
+  <si>
+    <t>46.162.197.248:80</t>
+  </si>
+  <si>
+    <t>91.194.42.51:80</t>
+  </si>
+  <si>
+    <t>170.82.228.42:8080</t>
+  </si>
+  <si>
+    <t>51.255.161.222:80</t>
+  </si>
+  <si>
+    <t>45.79.139.169:80</t>
+  </si>
+  <si>
+    <t>171.244.32.140:8080</t>
+  </si>
+  <si>
+    <t>167.114.224.6:80</t>
+  </si>
+  <si>
+    <t>149.129.219.96:80</t>
+  </si>
+  <si>
+    <t>128.140.225.41:80</t>
+  </si>
+  <si>
+    <t>93.146.254.172:80</t>
+  </si>
+  <si>
+    <t>35.229.149.132:80</t>
+  </si>
+  <si>
+    <t>52.42.234.31:80</t>
+  </si>
+  <si>
+    <t>13.125.196.161:80</t>
+  </si>
+  <si>
+    <t>209.141.56.170:8080</t>
+  </si>
+  <si>
+    <t>191.102.106.3:8181</t>
+  </si>
+  <si>
+    <t>95.85.50.218:80</t>
+  </si>
+  <si>
+    <t>88.190.203.36:80</t>
+  </si>
+  <si>
+    <t>59.106.220.187:60088</t>
+  </si>
+  <si>
+    <t>31.11.177.235:80</t>
+  </si>
+  <si>
+    <t>220.227.8.74:80</t>
+  </si>
+  <si>
+    <t>99.52.192.30:8080</t>
+  </si>
+  <si>
+    <t>209.97.137.43:80</t>
+  </si>
+  <si>
+    <t>35.184.23.203:80</t>
+  </si>
+  <si>
+    <t>204.11.243.70:3128</t>
+  </si>
+  <si>
+    <t>223.197.56.102:80</t>
+  </si>
+  <si>
+    <t>103.211.232.100:8080</t>
+  </si>
+  <si>
+    <t>35.237.135.142:8080</t>
+  </si>
+  <si>
+    <t>92.117.57.140:8080</t>
+  </si>
+  <si>
+    <t>190.75.193.67:8080</t>
+  </si>
+  <si>
+    <t>195.222.7.59:9999</t>
+  </si>
+  <si>
+    <t>159.89.205.205:8118</t>
+  </si>
+  <si>
+    <t>52.87.190.26:80</t>
+  </si>
   <si>
     <t>72.182.145.208:80</t>
   </si>
   <si>
-    <t>108.179.54.171:80</t>
-  </si>
-  <si>
-    <t>40.74.243.24:80</t>
-  </si>
-  <si>
-    <t>47.89.241.103:8080</t>
-  </si>
-  <si>
-    <t>34.240.231.232:3128</t>
-  </si>
-  <si>
-    <t>121.121.125.55:80</t>
-  </si>
-  <si>
-    <t>13.80.147.35:80</t>
-  </si>
-  <si>
-    <t>207.154.245.20:80</t>
-  </si>
-  <si>
-    <t>66.82.144.29:8080</t>
-  </si>
-  <si>
-    <t>52.169.139.131:80</t>
-  </si>
-  <si>
-    <t>219.127.191.12:80</t>
-  </si>
-  <si>
-    <t>204.11.243.74:3128</t>
-  </si>
-  <si>
     <t>184.178.217.66:3128</t>
   </si>
   <si>
-    <t>45.55.157.204:80</t>
-  </si>
-  <si>
-    <t>96.44.148.86:80</t>
-  </si>
-  <si>
-    <t>60.248.199.206:80</t>
-  </si>
-  <si>
-    <t>40.114.14.173:80</t>
-  </si>
-  <si>
-    <t>173.68.185.170:80</t>
-  </si>
-  <si>
-    <t>43.249.229.163:8080</t>
-  </si>
-  <si>
-    <t>59.106.223.171:60088</t>
-  </si>
-  <si>
-    <t>180.235.252.189:60088</t>
-  </si>
-  <si>
-    <t>191.102.106.3:8181</t>
-  </si>
-  <si>
-    <t>119.207.78.155:80</t>
-  </si>
-  <si>
-    <t>89.236.17.106:3128</t>
-  </si>
-  <si>
-    <t>163.43.28.199:60088</t>
-  </si>
-  <si>
-    <t>51.38.64.76:10000</t>
-  </si>
-  <si>
-    <t>185.93.3.123:8080</t>
-  </si>
-  <si>
-    <t>145.249.106.107:8118</t>
-  </si>
-  <si>
-    <t>159.65.136.198:3128</t>
-  </si>
-  <si>
-    <t>140.227.69.54:3128</t>
-  </si>
-  <si>
-    <t>133.130.117.241:3128</t>
-  </si>
-  <si>
-    <t>154.70.135.212:8080</t>
-  </si>
-  <si>
-    <t>93.146.254.172:80</t>
-  </si>
-  <si>
-    <t>91.121.162.173:80</t>
-  </si>
-  <si>
-    <t>151.80.58.175:80</t>
-  </si>
-  <si>
-    <t>128.140.225.41:80</t>
-  </si>
-  <si>
-    <t>129.232.179.98:80</t>
-  </si>
-  <si>
-    <t>137.74.198.136:80</t>
-  </si>
-  <si>
-    <t>137.74.254.242:3128</t>
-  </si>
-  <si>
-    <t>138.94.160.176:80</t>
-  </si>
-  <si>
-    <t>139.59.153.59:80</t>
-  </si>
-  <si>
-    <t>139.59.188.36:80</t>
-  </si>
-  <si>
-    <t>14.46.16.29:80</t>
-  </si>
-  <si>
-    <t>140.227.71.66:3128</t>
-  </si>
-  <si>
-    <t>140.227.8.186:3128</t>
-  </si>
-  <si>
-    <t>140.227.81.53:3128</t>
-  </si>
-  <si>
-    <t>144.217.82.199:80</t>
-  </si>
-  <si>
-    <t>145.239.77.20:80</t>
-  </si>
-  <si>
-    <t>148.251.235.82:80</t>
-  </si>
-  <si>
-    <t>148.251.85.62:3128</t>
-  </si>
-  <si>
-    <t>200.12.130.113:80</t>
-  </si>
-  <si>
-    <t>149.129.219.96:80</t>
-  </si>
-  <si>
-    <t>150.95.154.91:3128</t>
-  </si>
-  <si>
-    <t>157.65.29.152:3128</t>
-  </si>
-  <si>
-    <t>157.65.167.21:3128</t>
-  </si>
-  <si>
-    <t>200.60.104.68:80</t>
-  </si>
-  <si>
-    <t>158.69.150.164:3128</t>
-  </si>
-  <si>
-    <t>158.69.150.164:80</t>
-  </si>
-  <si>
-    <t>158.69.150.164:8080</t>
-  </si>
-  <si>
-    <t>191.252.120.198:8080</t>
-  </si>
-  <si>
-    <t>158.69.171.234:80</t>
-  </si>
-  <si>
-    <t>159.203.33.72:3128</t>
-  </si>
-  <si>
-    <t>185.253.88.10:80</t>
-  </si>
-  <si>
-    <t>159.65.168.134:80</t>
-  </si>
-  <si>
-    <t>159.89.194.51:80</t>
-  </si>
-  <si>
-    <t>163.172.122.68:80</t>
-  </si>
-  <si>
-    <t>163.172.181.29:80</t>
-  </si>
-  <si>
-    <t>163.172.98.25:80</t>
-  </si>
-  <si>
     <t>163.23.175.48:3128</t>
   </si>
   <si>
-    <t>164.132.98.51:80</t>
-  </si>
-  <si>
-    <t>167.114.224.6:80</t>
-  </si>
-  <si>
-    <t>167.99.224.142:3128</t>
-  </si>
-  <si>
-    <t>167.99.224.142:53</t>
-  </si>
-  <si>
-    <t>167.99.224.142:8080</t>
-  </si>
-  <si>
-    <t>170.78.23.245:8080</t>
-  </si>
-  <si>
-    <t>171.244.32.140:8080</t>
-  </si>
-  <si>
-    <t>175.98.239.87:8888</t>
-  </si>
-  <si>
-    <t>14.136.246.173:3128</t>
-  </si>
-  <si>
-    <t>140.227.74.7:3128</t>
-  </si>
-  <si>
-    <t>118.193.26.18:8080</t>
-  </si>
-  <si>
-    <t>211.249.50.216:80</t>
-  </si>
-  <si>
-    <t>202.138.127.66:80</t>
-  </si>
-  <si>
-    <t>45.79.139.169:80</t>
-  </si>
-  <si>
-    <t>185.42.221.246:80</t>
-  </si>
-  <si>
-    <t>58.181.39.182:80</t>
-  </si>
-  <si>
-    <t>13.95.231.14:80</t>
-  </si>
-  <si>
-    <t>163.172.86.64:3128</t>
-  </si>
-  <si>
-    <t>13.127.94.56:80</t>
-  </si>
-  <si>
-    <t>104.155.103.87:80</t>
-  </si>
-  <si>
-    <t>93.17.7.146:80</t>
-  </si>
-  <si>
-    <t>47.52.153.167:443</t>
-  </si>
-  <si>
-    <t>202.21.32.148:8080</t>
-  </si>
-  <si>
-    <t>217.182.92.162:3128</t>
-  </si>
-  <si>
-    <t>35.184.23.203:80</t>
-  </si>
-  <si>
-    <t>47.75.160.100:80</t>
-  </si>
-  <si>
-    <t>209.97.137.43:80</t>
-  </si>
-  <si>
-    <t>208.67.183.240:80</t>
-  </si>
-  <si>
-    <t>189.125.170.36:80</t>
-  </si>
-  <si>
-    <t>158.199.141.106:80</t>
-  </si>
-  <si>
-    <t>199.38.114.195:80</t>
-  </si>
-  <si>
-    <t>117.102.69.52:80</t>
-  </si>
-  <si>
-    <t>199.203.232.124:80</t>
-  </si>
-  <si>
-    <t>85.11.114.135:3128</t>
-  </si>
-  <si>
-    <t>12.162.8.175:80</t>
-  </si>
-  <si>
-    <t>176.108.47.38:3128</t>
-  </si>
-  <si>
-    <t>181.113.27.99:80</t>
-  </si>
-  <si>
-    <t>212.237.50.160:3128</t>
-  </si>
-  <si>
-    <t>187.84.222.153:80</t>
-  </si>
-  <si>
-    <t>142.44.247.60:80</t>
-  </si>
-  <si>
-    <t>93.190.142.214:80</t>
-  </si>
-  <si>
-    <t>219.91.255.179:80</t>
-  </si>
-  <si>
-    <t>201.245.172.157:80</t>
-  </si>
-  <si>
-    <t>177.4.173.242:80</t>
-  </si>
-  <si>
-    <t>192.169.154.178:80</t>
-  </si>
-  <si>
-    <t>34.225.249.169:80</t>
-  </si>
-  <si>
-    <t>51.255.161.222:80</t>
-  </si>
-  <si>
-    <t>115.249.145.202:80</t>
-  </si>
-  <si>
-    <t>82.244.233.132:80</t>
-  </si>
-  <si>
-    <t>92.222.74.221:80</t>
-  </si>
-  <si>
-    <t>170.82.228.42:8080</t>
-  </si>
-  <si>
-    <t>91.194.42.51:80</t>
-  </si>
-  <si>
-    <t>223.197.56.102:80</t>
-  </si>
-  <si>
-    <t>46.4.62.108:80</t>
-  </si>
-  <si>
-    <t>93.58.124.32:80</t>
-  </si>
-  <si>
-    <t>91.134.221.168:80</t>
-  </si>
-  <si>
-    <t>90.187.51.41:8080</t>
-  </si>
-  <si>
-    <t>13.250.242.1:80</t>
-  </si>
-  <si>
-    <t>67.205.154.3:80</t>
-  </si>
-  <si>
-    <t>52.51.186.165:80</t>
-  </si>
-  <si>
-    <t>125.212.203.161:80</t>
-  </si>
-  <si>
-    <t>47.52.153.167:80</t>
-  </si>
-  <si>
-    <t>103.252.163.191:80</t>
-  </si>
-  <si>
-    <t>34.240.97.171:3129</t>
-  </si>
-  <si>
-    <t>181.49.24.126:8081</t>
-  </si>
-  <si>
-    <t>103.20.204.104:80</t>
-  </si>
-  <si>
-    <t>46.162.197.248:80</t>
-  </si>
-  <si>
-    <t>177.67.83.134:80</t>
-  </si>
-  <si>
-    <t>192.169.154.104:80</t>
-  </si>
-  <si>
-    <t>192.116.142.153:8080</t>
-  </si>
-  <si>
-    <t>187.85.83.2:8080</t>
-  </si>
-  <si>
-    <t>119.28.194.66:8888</t>
-  </si>
-  <si>
-    <t>140.227.80.64:3128</t>
-  </si>
-  <si>
-    <t>140.227.79.52:3128</t>
-  </si>
-  <si>
-    <t>140.227.78.54:3128</t>
-  </si>
-  <si>
-    <t>140.227.75.72:3128</t>
-  </si>
-  <si>
-    <t>140.227.71.55:3128</t>
-  </si>
-  <si>
-    <t>140.227.70.51:3128</t>
-  </si>
-  <si>
-    <t>140.227.68.82:3128</t>
-  </si>
-  <si>
-    <t>140.227.25.111:3128</t>
-  </si>
-  <si>
-    <t>133.130.118.134:3128</t>
-  </si>
-  <si>
-    <t>147.135.210.114:54566</t>
-  </si>
-  <si>
-    <t>188.164.203.26:80</t>
-  </si>
-  <si>
-    <t>198.1.122.29:80</t>
-  </si>
-  <si>
-    <t>191.252.194.156:3128</t>
-  </si>
-  <si>
-    <t>187.86.96.10:8080</t>
-  </si>
-  <si>
-    <t>66.70.190.244:8080</t>
-  </si>
-  <si>
-    <t>191.252.194.156:80</t>
-  </si>
-  <si>
-    <t>191.252.194.156:8080</t>
-  </si>
-  <si>
-    <t>189.115.92.71:80</t>
-  </si>
-  <si>
-    <t>80.211.181.37:80</t>
-  </si>
-  <si>
-    <t>178.62.24.94:80</t>
-  </si>
-  <si>
-    <t>66.70.181.148:3128</t>
-  </si>
-  <si>
-    <t>176.31.45.117:3128</t>
-  </si>
-  <si>
-    <t>209.97.154.41:3128</t>
-  </si>
-  <si>
-    <t>66.70.190.244:80</t>
-  </si>
-  <si>
-    <t>206.81.5.117:3128</t>
-  </si>
-  <si>
-    <t>13.125.196.161:80</t>
-  </si>
-  <si>
-    <t>195.49.189.130:80</t>
-  </si>
-  <si>
-    <t>59.106.216.142:60088</t>
-  </si>
-  <si>
     <t>59.106.213.57:60088</t>
   </si>
   <si>
-    <t>59.106.213.54:60088</t>
-  </si>
-  <si>
-    <t>59.106.213.216:60088</t>
-  </si>
-  <si>
-    <t>59.106.209.106:60088</t>
-  </si>
-  <si>
-    <t>54.39.98.138:8080</t>
-  </si>
-  <si>
-    <t>54.36.162.123:10000</t>
-  </si>
-  <si>
-    <t>54.177.53.69:80</t>
-  </si>
-  <si>
-    <t>52.87.190.26:80</t>
-  </si>
-  <si>
-    <t>192.111.142.90:3128</t>
-  </si>
-  <si>
-    <t>52.208.125.199:80</t>
-  </si>
-  <si>
-    <t>51.38.106.25:80</t>
-  </si>
-  <si>
-    <t>51.255.235.168:80</t>
-  </si>
-  <si>
-    <t>51.255.138.195:9999</t>
-  </si>
-  <si>
-    <t>51.15.86.88:3128</t>
-  </si>
-  <si>
-    <t>51.15.147.94:80</t>
-  </si>
-  <si>
-    <t>5.226.70.68:80</t>
-  </si>
-  <si>
-    <t>5.152.217.82:3128</t>
-  </si>
-  <si>
-    <t>206.81.5.117:8080</t>
-  </si>
-  <si>
-    <t>47.254.27.204:80</t>
-  </si>
-  <si>
-    <t>180.253.154.109:80</t>
-  </si>
-  <si>
-    <t>209.97.154.41:8080</t>
-  </si>
-  <si>
-    <t>46.38.245.178:8080</t>
-  </si>
-  <si>
-    <t>198.50.168.208:80</t>
-  </si>
-  <si>
-    <t>46.101.172.5:443</t>
-  </si>
-  <si>
-    <t>45.76.102.72:8088</t>
-  </si>
-  <si>
-    <t>45.116.158.85:53281</t>
-  </si>
-  <si>
-    <t>43.245.187.38:53281</t>
-  </si>
-  <si>
-    <t>103.253.146.215:8080</t>
-  </si>
-  <si>
-    <t>43.228.126.175:80</t>
-  </si>
-  <si>
-    <t>41.89.94.43:80</t>
-  </si>
-  <si>
-    <t>41.72.198.10:80</t>
-  </si>
-  <si>
-    <t>41.72.198.10:3128</t>
-  </si>
-  <si>
-    <t>41.190.33.162:8080</t>
-  </si>
-  <si>
-    <t>180.253.154.109:8080</t>
-  </si>
-  <si>
-    <t>37.187.116.199:80</t>
-  </si>
-  <si>
-    <t>34.240.97.171:3130</t>
-  </si>
-  <si>
-    <t>34.240.97.171:3128</t>
-  </si>
-  <si>
-    <t>34.240.231.232:3129</t>
-  </si>
-  <si>
-    <t>191.252.120.162:80</t>
-  </si>
-  <si>
-    <t>31.11.177.235:80</t>
-  </si>
-  <si>
     <t>27.133.155.225:60088</t>
   </si>
   <si>
-    <t>27.133.155.162:60088</t>
-  </si>
-  <si>
-    <t>27.133.153.227:60088</t>
-  </si>
-  <si>
-    <t>27.133.132.80:60088</t>
-  </si>
-  <si>
-    <t>27.133.130.156:3128</t>
-  </si>
-  <si>
-    <t>23.100.105.68:3128</t>
-  </si>
-  <si>
-    <t>79.113.76.80:8080</t>
-  </si>
-  <si>
-    <t>222.122.202.175:80</t>
-  </si>
-  <si>
-    <t>220.227.8.74:80</t>
-  </si>
-  <si>
-    <t>219.120.3.219:80</t>
-  </si>
-  <si>
-    <t>213.6.40.142:80</t>
-  </si>
-  <si>
-    <t>213.163.181.33:80</t>
-  </si>
-  <si>
-    <t>191.252.120.162:8080</t>
-  </si>
-  <si>
     <t>213.136.86.234:80</t>
   </si>
   <si>
-    <t>212.72.150.51:8081</t>
-  </si>
-  <si>
-    <t>212.56.139.253:80</t>
-  </si>
-  <si>
     <t>212.237.33.61:80</t>
   </si>
   <si>
-    <t>212.237.29.185:80</t>
-  </si>
-  <si>
-    <t>212.200.246.24:80</t>
-  </si>
-  <si>
-    <t>211.75.82.206:3128</t>
-  </si>
-  <si>
-    <t>209.141.56.170:8080</t>
-  </si>
-  <si>
-    <t>206.81.3.55:3128</t>
-  </si>
-  <si>
-    <t>202.222.22.188:80</t>
-  </si>
-  <si>
-    <t>202.222.22.187:80</t>
-  </si>
-  <si>
-    <t>103.211.232.100:8080</t>
-  </si>
-  <si>
-    <t>35.237.135.142:8080</t>
-  </si>
-  <si>
-    <t>92.117.57.140:8080</t>
-  </si>
-  <si>
-    <t>153.127.196.176:60088</t>
-  </si>
-  <si>
-    <t>182.72.68.39:80</t>
-  </si>
-  <si>
-    <t>41.220.111.125:8080</t>
-  </si>
-  <si>
-    <t>81.30.26.80:80</t>
-  </si>
-  <si>
-    <t>23.100.106.183:3128</t>
-  </si>
-  <si>
-    <t>195.219.102.239:80</t>
-  </si>
-  <si>
-    <t>191.252.193.162:8080</t>
-  </si>
-  <si>
-    <t>189.8.68.78:80</t>
-  </si>
-  <si>
-    <t>23.100.107.150:3128</t>
-  </si>
-  <si>
-    <t>157.65.167.23:3128</t>
-  </si>
-  <si>
-    <t>191.252.193.162:80</t>
-  </si>
-  <si>
-    <t>116.82.121.187:60088</t>
-  </si>
-  <si>
-    <t>190.75.193.67:8080</t>
-  </si>
-  <si>
-    <t>202.131.233.202:53281</t>
-  </si>
-  <si>
-    <t>202.131.229.250:53281</t>
-  </si>
-  <si>
     <t>200.75.105.120:80</t>
   </si>
   <si>
-    <t>200.54.108.54:80</t>
-  </si>
-  <si>
-    <t>200.42.45.211:80</t>
-  </si>
-  <si>
-    <t>200.254.125.10:80</t>
-  </si>
-  <si>
-    <t>200.232.51.242:80</t>
-  </si>
-  <si>
-    <t>200.109.108.137:3128</t>
-  </si>
-  <si>
-    <t>198.50.137.181:8080</t>
-  </si>
-  <si>
-    <t>198.50.137.181:3128</t>
-  </si>
-  <si>
-    <t>196.22.249.124:80</t>
-  </si>
-  <si>
-    <t>195.208.172.70:8080</t>
-  </si>
-  <si>
-    <t>195.201.7.153:80</t>
-  </si>
-  <si>
-    <t>195.201.7.153:443</t>
-  </si>
-  <si>
-    <t>195.201.224.231:80</t>
-  </si>
-  <si>
-    <t>195.190.148.19:80</t>
-  </si>
-  <si>
-    <t>195.178.207.241:80</t>
-  </si>
-  <si>
-    <t>195.154.207.153:80</t>
-  </si>
-  <si>
-    <t>195.154.168.227:80</t>
-  </si>
-  <si>
-    <t>194.8.251.205:80</t>
-  </si>
-  <si>
-    <t>192.244.104.3:3128</t>
-  </si>
-  <si>
-    <t>191.252.92.198:80</t>
-  </si>
-  <si>
-    <t>191.252.120.198:80</t>
-  </si>
-  <si>
-    <t>191.252.120.198:3128</t>
-  </si>
-  <si>
     <t>191.252.1.236:80</t>
   </si>
   <si>
-    <t>190.82.70.109:80</t>
-  </si>
-  <si>
-    <t>190.128.162.70:80</t>
-  </si>
-  <si>
-    <t>189.8.68.78:8080</t>
-  </si>
-  <si>
-    <t>188.192.138.183:80</t>
-  </si>
-  <si>
-    <t>188.166.175.238:80</t>
-  </si>
-  <si>
-    <t>188.166.119.186:80</t>
-  </si>
-  <si>
-    <t>188.165.240.92:3128</t>
-  </si>
-  <si>
-    <t>188.120.228.19:80</t>
-  </si>
-  <si>
-    <t>188.111.84.107:80</t>
-  </si>
-  <si>
-    <t>187.217.189.229:8081</t>
-  </si>
-  <si>
-    <t>186.71.20.154:80</t>
-  </si>
-  <si>
-    <t>185.229.224.61:80</t>
-  </si>
-  <si>
-    <t>18.222.124.59:8080</t>
-  </si>
-  <si>
-    <t>178.62.76.18:81</t>
-  </si>
-  <si>
-    <t>178.49.139.13:80</t>
-  </si>
-  <si>
-    <t>178.33.37.215:9999</t>
-  </si>
-  <si>
-    <t>178.33.178.217:80</t>
-  </si>
-  <si>
-    <t>177.72.56.155:3128</t>
-  </si>
-  <si>
-    <t>177.54.142.222:8080</t>
-  </si>
-  <si>
-    <t>177.204.85.203:80</t>
-  </si>
-  <si>
-    <t>176.53.2.122:8080</t>
-  </si>
-  <si>
-    <t>109.233.125.171:10098</t>
-  </si>
-  <si>
-    <t>175.139.252.193:80</t>
-  </si>
-  <si>
-    <t>158.58.172.207:14826</t>
-  </si>
-  <si>
-    <t>139.255.57.32:8080</t>
-  </si>
-  <si>
-    <t>163.43.31.6:60088</t>
-  </si>
-  <si>
-    <t>163.43.31.107:60088</t>
-  </si>
-  <si>
-    <t>163.43.30.9:60088</t>
-  </si>
-  <si>
-    <t>163.43.30.42:60088</t>
-  </si>
-  <si>
-    <t>163.43.29.181:60088</t>
-  </si>
-  <si>
-    <t>163.43.29.166:60088</t>
-  </si>
-  <si>
-    <t>163.43.28.30:60088</t>
-  </si>
-  <si>
-    <t>163.43.28.237:60088</t>
-  </si>
-  <si>
-    <t>163.43.28.172:60088</t>
-  </si>
-  <si>
-    <t>160.16.201.57:60088</t>
-  </si>
-  <si>
     <t>159.89.163.248:53281</t>
   </si>
   <si>
-    <t>153.127.217.166:60088</t>
-  </si>
-  <si>
-    <t>153.127.216.249:60088</t>
-  </si>
-  <si>
-    <t>153.127.215.246:60088</t>
-  </si>
-  <si>
-    <t>153.127.203.112:60088</t>
-  </si>
-  <si>
-    <t>153.127.201.235:60088</t>
-  </si>
-  <si>
-    <t>153.127.201.147:60088</t>
-  </si>
-  <si>
-    <t>153.127.201.127:60088</t>
-  </si>
-  <si>
-    <t>153.127.199.19:60088</t>
-  </si>
-  <si>
-    <t>153.127.198.98:60088</t>
-  </si>
-  <si>
-    <t>153.127.198.128:60088</t>
-  </si>
-  <si>
-    <t>153.127.196.201:60088</t>
-  </si>
-  <si>
-    <t>153.127.195.6:60088</t>
-  </si>
-  <si>
-    <t>153.127.195.28:60088</t>
-  </si>
-  <si>
-    <t>153.127.194.248:60088</t>
-  </si>
-  <si>
-    <t>153.125.129.235:60088</t>
-  </si>
-  <si>
-    <t>153.125.129.225:60088</t>
-  </si>
-  <si>
-    <t>153.125.128.98:60088</t>
-  </si>
-  <si>
-    <t>153.125.128.237:60088</t>
-  </si>
-  <si>
-    <t>153.120.170.206:60088</t>
-  </si>
-  <si>
-    <t>153.120.170.129:60088</t>
-  </si>
-  <si>
-    <t>153.120.170.101:60088</t>
-  </si>
-  <si>
-    <t>153.120.167.192:60088</t>
-  </si>
-  <si>
-    <t>153.120.166.9:60088</t>
-  </si>
-  <si>
-    <t>153.120.166.64:60088</t>
-  </si>
-  <si>
-    <t>153.120.166.62:60088</t>
-  </si>
-  <si>
-    <t>149.56.103.185:10000</t>
-  </si>
-  <si>
-    <t>149.56.103.184:10000</t>
-  </si>
-  <si>
-    <t>133.242.237.62:60088</t>
-  </si>
-  <si>
-    <t>133.242.235.119:60088</t>
-  </si>
-  <si>
-    <t>133.242.231.184:60088</t>
-  </si>
-  <si>
-    <t>133.242.230.13:60088</t>
-  </si>
-  <si>
-    <t>133.242.228.188:60088</t>
-  </si>
-  <si>
-    <t>133.242.228.111:60088</t>
-  </si>
-  <si>
-    <t>133.242.224.27:60088</t>
-  </si>
-  <si>
-    <t>123.31.47.8:3128</t>
-  </si>
-  <si>
-    <t>123.30.172.60:3128</t>
-  </si>
-  <si>
-    <t>119.28.21.144:8080</t>
-  </si>
-  <si>
-    <t>119.28.142.148:8888</t>
-  </si>
-  <si>
-    <t>117.74.125.192:8088</t>
-  </si>
-  <si>
-    <t>117.102.88.121:80</t>
-  </si>
-  <si>
-    <t>116.197.135.172:3128</t>
-  </si>
-  <si>
-    <t>115.84.179.249:7777</t>
-  </si>
-  <si>
-    <t>114.202.2.185:80</t>
-  </si>
-  <si>
-    <t>113.190.235.188:2016</t>
-  </si>
-  <si>
-    <t>111.68.108.34:8080</t>
-  </si>
-  <si>
-    <t>109.251.106.8:8010</t>
-  </si>
-  <si>
-    <t>109.108.146.157:80</t>
-  </si>
-  <si>
-    <t>107.172.48.172:9999</t>
-  </si>
-  <si>
-    <t>103.83.233.161:8080</t>
-  </si>
-  <si>
-    <t>103.63.109.19:3128</t>
-  </si>
-  <si>
-    <t>103.3.70.133:80</t>
-  </si>
-  <si>
-    <t>103.252.163.119:3128</t>
-  </si>
-  <si>
-    <t>79.190.145.140:3128</t>
-  </si>
-  <si>
-    <t>83.64.253.168:80</t>
-  </si>
-  <si>
-    <t>95.85.50.218:80</t>
-  </si>
-  <si>
-    <t>59.106.223.57:60088</t>
-  </si>
-  <si>
-    <t>80.211.226.156:80</t>
-  </si>
-  <si>
-    <t>83.169.6.43:80</t>
-  </si>
-  <si>
-    <t>77.82.87.125:8081</t>
-  </si>
-  <si>
-    <t>81.107.70.221:80</t>
-  </si>
-  <si>
-    <t>85.93.177.178:80</t>
-  </si>
-  <si>
-    <t>80.211.189.165:3128</t>
-  </si>
-  <si>
-    <t>79.190.145.141:3128</t>
-  </si>
-  <si>
-    <t>59.106.220.187:60088</t>
-  </si>
-  <si>
-    <t>59.106.222.74:60088</t>
-  </si>
-  <si>
-    <t>88.99.215.14:80</t>
-  </si>
-  <si>
-    <t>59.106.218.51:60088</t>
-  </si>
-  <si>
-    <t>91.121.88.53:80</t>
-  </si>
-  <si>
-    <t>62.80.223.139:80</t>
-  </si>
-  <si>
-    <t>92.222.213.107:3128</t>
-  </si>
-  <si>
-    <t>195.222.7.59:9999</t>
-  </si>
-  <si>
-    <t>223.19.51.247:8383</t>
-  </si>
-  <si>
-    <t>60.250.79.187:80</t>
-  </si>
-  <si>
-    <t>159.89.205.205:8118</t>
-  </si>
-  <si>
-    <t>94.130.20.85:31288</t>
-  </si>
-  <si>
-    <t>59.106.218.101:60088</t>
-  </si>
-  <si>
-    <t>79.137.85.204:80</t>
-  </si>
-  <si>
-    <t>92.222.83.160:80</t>
-  </si>
-  <si>
-    <t>79.190.145.142:3128</t>
-  </si>
-  <si>
-    <t>90.45.26.244:80</t>
-  </si>
-  <si>
-    <t>74.209.243.116:3128</t>
-  </si>
-  <si>
-    <t>86.119.40.127:80</t>
-  </si>
-  <si>
-    <t>82.208.98.202:80</t>
-  </si>
-  <si>
-    <t>87.139.146.191:8080</t>
-  </si>
-  <si>
-    <t>67.205.148.246:3128</t>
-  </si>
-  <si>
-    <t>91.203.240.210:80</t>
-  </si>
-  <si>
-    <t>88.99.149.188:31288</t>
-  </si>
-  <si>
-    <t>80.211.181.37:3128</t>
-  </si>
-  <si>
-    <t>67.205.148.246:53</t>
-  </si>
-  <si>
-    <t>99.52.192.30:8080</t>
-  </si>
-  <si>
-    <t>59.106.217.16:60088</t>
-  </si>
-  <si>
-    <t>80.211.157.173:80</t>
-  </si>
-  <si>
-    <t>66.154.103.39:80</t>
-  </si>
-  <si>
-    <t>204.11.243.70:3128</t>
-  </si>
-  <si>
-    <t>67.205.148.246:8080</t>
-  </si>
-  <si>
-    <t>52.42.234.31:80</t>
-  </si>
-  <si>
-    <t>35.234.129.7:80</t>
-  </si>
-  <si>
-    <t>35.230.34.45:80</t>
-  </si>
-  <si>
-    <t>140.227.9.100:3128</t>
-  </si>
-  <si>
-    <t>145.239.93.131:80</t>
-  </si>
-  <si>
-    <t>64.88.186.84:80</t>
-  </si>
-  <si>
-    <t>75.128.59.155:80</t>
-  </si>
-  <si>
-    <t>207.154.194.13:80</t>
-  </si>
-  <si>
-    <t>145.249.105.25:8118</t>
-  </si>
-  <si>
-    <t>140.227.30.123:3128</t>
-  </si>
-  <si>
-    <t>140.227.26.111:3128</t>
-  </si>
-  <si>
-    <t>171.255.199.129:80</t>
-  </si>
-  <si>
-    <t>165.90.11.18:8080</t>
-  </si>
-  <si>
-    <t>159.65.182.63:80</t>
-  </si>
-  <si>
-    <t>159.65.175.251:80</t>
-  </si>
-  <si>
-    <t>149.56.45.68:10000</t>
-  </si>
-  <si>
-    <t>132.148.150.41:80</t>
-  </si>
-  <si>
-    <t>109.196.34.51:8080</t>
-  </si>
-  <si>
-    <t>144.217.105.153:80</t>
-  </si>
-  <si>
-    <t>169.239.126.150:3128</t>
-  </si>
-  <si>
-    <t>159.65.168.7:80</t>
-  </si>
-  <si>
-    <t>176.31.125.111:80</t>
-  </si>
-  <si>
-    <t>221.139.49.46:80</t>
-  </si>
-  <si>
-    <t>133.242.224.79:60088</t>
-  </si>
-  <si>
-    <t>193.105.155.168:80</t>
-  </si>
-  <si>
-    <t>178.60.28.98:9999</t>
-  </si>
-  <si>
-    <t>5.39.27.169:80</t>
-  </si>
-  <si>
     <t>159.65.164.108:80</t>
   </si>
   <si>
-    <t>202.21.116.186:53281</t>
-  </si>
-  <si>
-    <t>34.240.231.232:3130</t>
-  </si>
-  <si>
-    <t>168.235.93.162:8080</t>
-  </si>
-  <si>
     <t>46.218.85.101:3129</t>
   </si>
   <si>
-    <t>150.242.180.151:80</t>
-  </si>
-  <si>
-    <t>189.76.81.14:20183</t>
-  </si>
-  <si>
     <t>123.176.43.144:9090</t>
-  </si>
-  <si>
-    <t>149.56.243.207:80</t>
-  </si>
-  <si>
-    <t>5.189.168.151:80</t>
-  </si>
-  <si>
-    <t>167.114.196.153:80</t>
-  </si>
-  <si>
-    <t>58.97.81.11:80</t>
-  </si>
-  <si>
-    <t>150.95.147.66:3128</t>
-  </si>
-  <si>
-    <t>140.227.74.74:3128</t>
-  </si>
-  <si>
-    <t>140.227.80.50:3128</t>
-  </si>
-  <si>
-    <t>178.33.39.195:9999</t>
-  </si>
-  <si>
-    <t>140.227.73.83:3128</t>
-  </si>
-  <si>
-    <t>176.107.110.112:80</t>
-  </si>
-  <si>
-    <t>144.217.246.237:9090</t>
-  </si>
-  <si>
-    <t>140.227.81.69:3128</t>
-  </si>
-  <si>
-    <t>140.227.82.51:3128</t>
-  </si>
-  <si>
-    <t>93.190.142.240:80</t>
-  </si>
-  <si>
-    <t>85.126.244.82:8080</t>
-  </si>
-  <si>
-    <t>62.210.73.38:80</t>
-  </si>
-  <si>
-    <t>91.134.137.233:80</t>
-  </si>
-  <si>
-    <t>59.106.218.188:60088</t>
-  </si>
-  <si>
-    <t>52.193.131.15:8080</t>
-  </si>
-  <si>
-    <t>52.193.131.15:80</t>
-  </si>
-  <si>
-    <t>187.84.187.4:8383</t>
-  </si>
-  <si>
-    <t>184.172.238.18:80</t>
-  </si>
-  <si>
-    <t>45.6.216.79:80</t>
-  </si>
-  <si>
-    <t>159.89.163.248:80</t>
-  </si>
-  <si>
-    <t>138.197.170.108:80</t>
-  </si>
-  <si>
-    <t>167.99.93.3:8080</t>
-  </si>
-  <si>
-    <t>150.95.190.145:3128</t>
-  </si>
-  <si>
-    <t>187.110.238.133:3130</t>
-  </si>
-  <si>
-    <t>160.16.75.109:80</t>
-  </si>
-  <si>
-    <t>185.26.52.133:80</t>
-  </si>
-  <si>
-    <t>195.13.50.212:8118</t>
-  </si>
-  <si>
-    <t>138.201.223.250:31288</t>
-  </si>
-  <si>
-    <t>223.19.51.247:8380</t>
-  </si>
-  <si>
-    <t>104.131.214.218:80</t>
-  </si>
-  <si>
-    <t>46.246.42.171:3128</t>
-  </si>
-  <si>
-    <t>139.162.3.174:8118</t>
-  </si>
-  <si>
-    <t>103.20.205.197:80</t>
-  </si>
-  <si>
-    <t>193.194.69.202:8090</t>
-  </si>
-  <si>
-    <t>195.245.214.107:3128</t>
-  </si>
-  <si>
-    <t>188.120.232.181:8118</t>
-  </si>
-  <si>
-    <t>163.43.30.191:60088</t>
-  </si>
-  <si>
-    <t>189.8.68.78:3128</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A482"/>
+  <dimension ref="A1:A472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4157,56 +4127,6 @@
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="s">
-        <v>481</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
